--- a/data/trans_orig/P0901-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P0901-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>177278</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>154072</v>
+        <v>152412</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>201131</v>
+        <v>201043</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1718267148427268</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.149334764955892</v>
+        <v>0.1477259477405444</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1949466177320642</v>
+        <v>0.1948618052678639</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>334</v>
@@ -765,19 +765,19 @@
         <v>348080</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>316163</v>
+        <v>318207</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>383014</v>
+        <v>379327</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2646769968698681</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2404074343821765</v>
+        <v>0.2419619596683338</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2912407401323484</v>
+        <v>0.2884370649784928</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>517</v>
@@ -786,19 +786,19 @@
         <v>525358</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>488074</v>
+        <v>487586</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>568755</v>
+        <v>568023</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2238578777589179</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2079712274612441</v>
+        <v>0.2077634315869786</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2423498527605214</v>
+        <v>0.2420378071027078</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>854445</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>830592</v>
+        <v>830680</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>877651</v>
+        <v>879311</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8281732851572733</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8050533822679352</v>
+        <v>0.8051381947321359</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8506652350441078</v>
+        <v>0.8522740522594552</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>957</v>
@@ -836,19 +836,19 @@
         <v>967033</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>932099</v>
+        <v>935786</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>998950</v>
+        <v>996906</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.735323003130132</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.708759259867652</v>
+        <v>0.7115629350215075</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7595925656178236</v>
+        <v>0.7580380403316662</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1812</v>
@@ -857,19 +857,19 @@
         <v>1821477</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1778080</v>
+        <v>1778812</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1858761</v>
+        <v>1859249</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7761421222410821</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7576501472394787</v>
+        <v>0.7579621928972922</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7920287725387557</v>
+        <v>0.7922365684130214</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>94209</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>76763</v>
+        <v>76853</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>114401</v>
+        <v>114355</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05563279869743364</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04533058227412606</v>
+        <v>0.0453832986540041</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06755641281659937</v>
+        <v>0.06752918015555999</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>156</v>
@@ -982,19 +982,19 @@
         <v>160686</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>135059</v>
+        <v>139017</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>186406</v>
+        <v>187263</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1012085588497111</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08506747928317018</v>
+        <v>0.08756052172961144</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1174085788330999</v>
+        <v>0.117948385722651</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>250</v>
@@ -1003,19 +1003,19 @@
         <v>254895</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>225547</v>
+        <v>223743</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>287410</v>
+        <v>284348</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07768629404756634</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06874155134219018</v>
+        <v>0.06819175685127865</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08759596378986792</v>
+        <v>0.08666273379933719</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1599204</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1579012</v>
+        <v>1579058</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1616650</v>
+        <v>1616560</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9443672013025664</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9324435871834004</v>
+        <v>0.9324708198444386</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9546694177258737</v>
+        <v>0.9546167013459954</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1398</v>
@@ -1053,19 +1053,19 @@
         <v>1426987</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1401267</v>
+        <v>1400410</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1452614</v>
+        <v>1448656</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.898791441150289</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8825914211669001</v>
+        <v>0.8820516142773489</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9149325207168298</v>
+        <v>0.9124394782703886</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2953</v>
@@ -1074,19 +1074,19 @@
         <v>3026191</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2993676</v>
+        <v>2996738</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3055539</v>
+        <v>3057343</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9223137059524337</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.912404036210132</v>
+        <v>0.9133372662006628</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9312584486578097</v>
+        <v>0.9318082431487212</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>24931</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>16871</v>
+        <v>15852</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>38299</v>
+        <v>35884</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04521278632225627</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03059619125551581</v>
+        <v>0.02874788521845552</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06945725890397343</v>
+        <v>0.06507653282253671</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>40</v>
@@ -1199,19 +1199,19 @@
         <v>43367</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>31467</v>
+        <v>31849</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>57246</v>
+        <v>57520</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0910292930719234</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06605013610291857</v>
+        <v>0.06685142711546661</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1201609167873899</v>
+        <v>0.1207364744673543</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>63</v>
@@ -1220,19 +1220,19 @@
         <v>68298</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>53200</v>
+        <v>54690</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>85288</v>
+        <v>88258</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06644950680746947</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05176049795977765</v>
+        <v>0.05320944564135367</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08297968809858636</v>
+        <v>0.08586901169987578</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>526477</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>513109</v>
+        <v>515524</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>534537</v>
+        <v>535556</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9547872136777438</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9305427410960264</v>
+        <v>0.9349234671774633</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9694038087444838</v>
+        <v>0.9712521147815445</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>412</v>
@@ -1270,19 +1270,19 @@
         <v>433045</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>419166</v>
+        <v>418892</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>444945</v>
+        <v>444563</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9089707069280766</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8798390832126101</v>
+        <v>0.8792635255326459</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9339498638970815</v>
+        <v>0.9331485728845335</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>916</v>
@@ -1291,19 +1291,19 @@
         <v>959522</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>942532</v>
+        <v>939562</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>974620</v>
+        <v>973130</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9335504931925306</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9170203119014136</v>
+        <v>0.9141309883001241</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.948239502040222</v>
+        <v>0.9467905543586463</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>296417</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>263608</v>
+        <v>259917</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>332458</v>
+        <v>328866</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09046653281879337</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08045319006463482</v>
+        <v>0.07932654752445274</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1014660526857801</v>
+        <v>0.1003699306674949</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>530</v>
@@ -1416,19 +1416,19 @@
         <v>552134</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>509324</v>
+        <v>512828</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>595806</v>
+        <v>599841</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1633919315485758</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1507234917242171</v>
+        <v>0.1517604175701385</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1763159697134691</v>
+        <v>0.1775098810229274</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>830</v>
@@ -1437,19 +1437,19 @@
         <v>848551</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>793968</v>
+        <v>790056</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>902473</v>
+        <v>902454</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.127491610089047</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1192906726415923</v>
+        <v>0.1187029444064466</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1355932162914225</v>
+        <v>0.1355903025343252</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>2980126</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2944085</v>
+        <v>2947677</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3012935</v>
+        <v>3016626</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9095334671812066</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8985339473142198</v>
+        <v>0.8996300693325051</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9195468099353652</v>
+        <v>0.9206734524755471</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2767</v>
@@ -1487,19 +1487,19 @@
         <v>2827063</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2783391</v>
+        <v>2779356</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2869873</v>
+        <v>2866369</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8366080684514242</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8236840302865298</v>
+        <v>0.8224901189770721</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8492765082757826</v>
+        <v>0.8482395824298613</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5681</v>
@@ -1508,19 +1508,19 @@
         <v>5807190</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5753268</v>
+        <v>5753287</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5861773</v>
+        <v>5865685</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.872508389910953</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8644067837085774</v>
+        <v>0.8644096974656748</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8807093273584073</v>
+        <v>0.8812970555935533</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>242279</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>216139</v>
+        <v>215623</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>270126</v>
+        <v>274275</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2485826700865635</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2217624077426516</v>
+        <v>0.2212323002993564</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2771536156583991</v>
+        <v>0.2814103334824664</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>467</v>
@@ -1872,19 +1872,19 @@
         <v>498336</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>462863</v>
+        <v>463714</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>534744</v>
+        <v>537039</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3725047490625847</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3459892043546095</v>
+        <v>0.3466249421573978</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.399719868079211</v>
+        <v>0.401435078771044</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>686</v>
@@ -1893,19 +1893,19 @@
         <v>740615</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>698081</v>
+        <v>697157</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>786840</v>
+        <v>788921</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3202742863196333</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3018808230328023</v>
+        <v>0.3014811862329698</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3402638038830462</v>
+        <v>0.3411637464082966</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>732364</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>704517</v>
+        <v>700368</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>758504</v>
+        <v>759020</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7514173299134366</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7228463843416008</v>
+        <v>0.7185896665175335</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7782375922573483</v>
+        <v>0.7787676997006432</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>780</v>
@@ -1943,19 +1943,19 @@
         <v>839461</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>803053</v>
+        <v>800758</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>874934</v>
+        <v>874083</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6274952509374152</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6002801319207889</v>
+        <v>0.598564921228956</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6540107956453904</v>
+        <v>0.6533750578426022</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1469</v>
@@ -1964,19 +1964,19 @@
         <v>1571825</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1525600</v>
+        <v>1523519</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1614359</v>
+        <v>1615283</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6797257136803666</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6597361961169538</v>
+        <v>0.6588362535917035</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6981191769671977</v>
+        <v>0.6985188137670301</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>137784</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>116109</v>
+        <v>115992</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>161136</v>
+        <v>163172</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07015607091816536</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05912008633491141</v>
+        <v>0.0590604573530779</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0820465014473699</v>
+        <v>0.08308338872524851</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>183</v>
@@ -2089,19 +2089,19 @@
         <v>204781</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>176116</v>
+        <v>178836</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>234273</v>
+        <v>234913</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1164981222855489</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1001910691088913</v>
+        <v>0.1017384213529841</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1332762220784813</v>
+        <v>0.1336401232204368</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>314</v>
@@ -2110,19 +2110,19 @@
         <v>342564</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>309874</v>
+        <v>305280</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>380341</v>
+        <v>380510</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09204361328987985</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08326017007036504</v>
+        <v>0.08202574274698092</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1021939468982341</v>
+        <v>0.1022391426356202</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>1826173</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1802821</v>
+        <v>1800785</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1847848</v>
+        <v>1847965</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9298439290818347</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9179534985526301</v>
+        <v>0.9169166112747514</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9408799136650886</v>
+        <v>0.940939542646922</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1452</v>
@@ -2160,19 +2160,19 @@
         <v>1553022</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1523530</v>
+        <v>1522890</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1581687</v>
+        <v>1578967</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8835018777144511</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8667237779215188</v>
+        <v>0.8663598767795632</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8998089308911087</v>
+        <v>0.8982615786470159</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3177</v>
@@ -2181,19 +2181,19 @@
         <v>3379196</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3341419</v>
+        <v>3341250</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3411886</v>
+        <v>3416480</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9079563867101201</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8978060531017664</v>
+        <v>0.8977608573643795</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.916739829929635</v>
+        <v>0.9179742572530191</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>30535</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>20510</v>
+        <v>19640</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45428</v>
+        <v>44903</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06345807547406214</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04262429623035489</v>
+        <v>0.0408163033268726</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09440983519550841</v>
+        <v>0.09331761793558975</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>34</v>
@@ -2306,19 +2306,19 @@
         <v>36689</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>25970</v>
+        <v>25781</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>49086</v>
+        <v>50732</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07999590058922373</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05662568330097464</v>
+        <v>0.05621257093765263</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1070277885919811</v>
+        <v>0.1106162349948965</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>58</v>
@@ -2327,19 +2327,19 @@
         <v>67223</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>48571</v>
+        <v>52379</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>84290</v>
+        <v>87308</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07152857944741878</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05168169301318808</v>
+        <v>0.05573355370946744</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08968837269871481</v>
+        <v>0.09289912053704238</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>450646</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>435753</v>
+        <v>436278</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>460671</v>
+        <v>461541</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9365419245259379</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9055901648044916</v>
+        <v>0.9066823820644103</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9573757037696452</v>
+        <v>0.9591836966731276</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>378</v>
@@ -2377,19 +2377,19 @@
         <v>421942</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>409545</v>
+        <v>407899</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>432661</v>
+        <v>432850</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9200040994107763</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8929722114080189</v>
+        <v>0.8893837650051035</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9433743166990254</v>
+        <v>0.9437874290623474</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>792</v>
@@ -2398,19 +2398,19 @@
         <v>872590</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>855523</v>
+        <v>852505</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>891242</v>
+        <v>887434</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9284714205525813</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.910311627301285</v>
+        <v>0.9071008794629577</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9483183069868115</v>
+        <v>0.9442664462905326</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>410598</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>372112</v>
+        <v>372680</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>454108</v>
+        <v>453728</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.120065478626471</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1088115440286723</v>
+        <v>0.1089776602606743</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1327886061258827</v>
+        <v>0.1326774542706696</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>684</v>
@@ -2523,19 +2523,19 @@
         <v>739805</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>691646</v>
+        <v>685892</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>793047</v>
+        <v>786028</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2081477062788196</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1945979356863647</v>
+        <v>0.1929790306204631</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2231277651323818</v>
+        <v>0.2211526971268563</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1058</v>
@@ -2544,19 +2544,19 @@
         <v>1150403</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1087670</v>
+        <v>1089679</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1214120</v>
+        <v>1216748</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1649556387251727</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1559603883781016</v>
+        <v>0.1562485689284136</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1740920520680994</v>
+        <v>0.1744688326261263</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>3009184</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2965674</v>
+        <v>2966054</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3047670</v>
+        <v>3047102</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.879934521373529</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8672113938741173</v>
+        <v>0.8673225457293302</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8911884559713276</v>
+        <v>0.8910223397393257</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2610</v>
@@ -2594,19 +2594,19 @@
         <v>2814425</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2761183</v>
+        <v>2768202</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2862584</v>
+        <v>2868338</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7918522937211804</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.776872234867618</v>
+        <v>0.7788473028731441</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8054020643136348</v>
+        <v>0.8070209693795373</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5438</v>
@@ -2615,19 +2615,19 @@
         <v>5823609</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5759892</v>
+        <v>5757264</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5886342</v>
+        <v>5884333</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8350443612748273</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8259079479319005</v>
+        <v>0.8255311673738738</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8440396116218983</v>
+        <v>0.8437514310715863</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>174128</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>149928</v>
+        <v>153401</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>196038</v>
+        <v>197516</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2308331707621269</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1987522969738588</v>
+        <v>0.2033557088515485</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2598781566239286</v>
+        <v>0.2618374493703503</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>314</v>
@@ -2979,19 +2979,19 @@
         <v>368438</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>337172</v>
+        <v>338556</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>400353</v>
+        <v>404892</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.370415827161744</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3389825814273138</v>
+        <v>0.3403739934287104</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4025020740807955</v>
+        <v>0.4070662018688044</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>494</v>
@@ -3000,19 +3000,19 @@
         <v>542566</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>504845</v>
+        <v>503373</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>580367</v>
+        <v>580732</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3102138210701225</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2886464830762129</v>
+        <v>0.2878047879372538</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.331826539398776</v>
+        <v>0.3320349999072575</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>580219</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>558309</v>
+        <v>556831</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>604419</v>
+        <v>600946</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7691668292378731</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7401218433760715</v>
+        <v>0.7381625506296497</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8012477030261412</v>
+        <v>0.7966442911484515</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>578</v>
@@ -3050,19 +3050,19 @@
         <v>626222</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>594307</v>
+        <v>589768</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>657488</v>
+        <v>656104</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.629584172838256</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5974979259192046</v>
+        <v>0.5929337981311956</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6610174185726861</v>
+        <v>0.6596260065712896</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1160</v>
@@ -3071,19 +3071,19 @@
         <v>1206441</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1168640</v>
+        <v>1168275</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1244162</v>
+        <v>1245634</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6897861789298775</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.668173460601224</v>
+        <v>0.6679650000927423</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7113535169237868</v>
+        <v>0.7121952120627459</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>150466</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>128129</v>
+        <v>126782</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>176449</v>
+        <v>175929</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07246555912214162</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06170782185565333</v>
+        <v>0.0610588188366807</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08497894435953371</v>
+        <v>0.08472831649295416</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>232</v>
@@ -3196,19 +3196,19 @@
         <v>263286</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>232426</v>
+        <v>234124</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>295711</v>
+        <v>296251</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1324175653062785</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1168967025861832</v>
+        <v>0.1177506007459378</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1487257000858107</v>
+        <v>0.1489972829800712</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>372</v>
@@ -3217,19 +3217,19 @@
         <v>413752</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>371064</v>
+        <v>373198</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>460431</v>
+        <v>455482</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1017919588044132</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09128961226681453</v>
+        <v>0.09181464538078081</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1132760165778526</v>
+        <v>0.1120583512752483</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>1925919</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1899936</v>
+        <v>1900456</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1948256</v>
+        <v>1949603</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9275344408778584</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9150210556404662</v>
+        <v>0.9152716835070458</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9382921781443466</v>
+        <v>0.9389411811633193</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1676</v>
@@ -3267,19 +3267,19 @@
         <v>1725014</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1692589</v>
+        <v>1692049</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1755874</v>
+        <v>1754176</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8675824346937215</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8512742999141892</v>
+        <v>0.8510027170199288</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8831032974138168</v>
+        <v>0.882249399254062</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3488</v>
@@ -3288,19 +3288,19 @@
         <v>3650933</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3604254</v>
+        <v>3609203</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3693621</v>
+        <v>3691487</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8982080411955867</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8867239834221473</v>
+        <v>0.8879416487247517</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9087103877331854</v>
+        <v>0.9081853546192192</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>30206</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>19565</v>
+        <v>19445</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>43273</v>
+        <v>43664</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05523347325195732</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03577565855017888</v>
+        <v>0.03555660720460491</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07912676404437567</v>
+        <v>0.07984053750965978</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>48</v>
@@ -3413,19 +3413,19 @@
         <v>55215</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>41600</v>
+        <v>41204</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>73105</v>
+        <v>72669</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1005487923270936</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07575428370890012</v>
+        <v>0.07503415539573563</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.133126700152044</v>
+        <v>0.1323328682562419</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>73</v>
@@ -3434,19 +3434,19 @@
         <v>85422</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>67608</v>
+        <v>67751</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>106399</v>
+        <v>106512</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07793773166837539</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06168496651673369</v>
+        <v>0.06181548743078325</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09707698728506896</v>
+        <v>0.09718006347292571</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>516680</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>503613</v>
+        <v>503222</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>527321</v>
+        <v>527441</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9447665267480427</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9208732359556244</v>
+        <v>0.9201594624903402</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9642243414498211</v>
+        <v>0.9644433927953951</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>478</v>
@@ -3484,19 +3484,19 @@
         <v>493925</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>476035</v>
+        <v>476471</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>507540</v>
+        <v>507936</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8994512076729064</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8668732998479561</v>
+        <v>0.8676671317437582</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9242457162911</v>
+        <v>0.9249658446042645</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>954</v>
@@ -3505,19 +3505,19 @@
         <v>1010605</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>989628</v>
+        <v>989515</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1028419</v>
+        <v>1028276</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9220622683316246</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.902923012714931</v>
+        <v>0.902819936527074</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9383150334832663</v>
+        <v>0.9381845125692166</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>354801</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>320353</v>
+        <v>320216</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>390828</v>
+        <v>392180</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1050447647081433</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09484579303670145</v>
+        <v>0.09480522071619506</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.115711166041759</v>
+        <v>0.1161113048438556</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>594</v>
@@ -3630,19 +3630,19 @@
         <v>686939</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>635889</v>
+        <v>640855</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>732708</v>
+        <v>741282</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1944845878748085</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1800313620885299</v>
+        <v>0.1814373520275146</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2074426767859426</v>
+        <v>0.2098701897773753</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>939</v>
@@ -3651,19 +3651,19 @@
         <v>1041740</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>975019</v>
+        <v>980150</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1098973</v>
+        <v>1103613</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1507644927383312</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1411084259945418</v>
+        <v>0.1418508989330499</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1590475155563489</v>
+        <v>0.1597189399583556</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>3022817</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2986790</v>
+        <v>2985438</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3057265</v>
+        <v>3057402</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8949552352918567</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8842888339582409</v>
+        <v>0.8838886951561439</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9051542069632984</v>
+        <v>0.9051947792838048</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2732</v>
@@ -3701,19 +3701,19 @@
         <v>2845161</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2799392</v>
+        <v>2790818</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2896211</v>
+        <v>2891245</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8055154121251915</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7925573232140574</v>
+        <v>0.7901298102226247</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8199686379114701</v>
+        <v>0.8185626479724855</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5602</v>
@@ -3722,19 +3722,19 @@
         <v>5867978</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5810745</v>
+        <v>5806105</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5934699</v>
+        <v>5929568</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8492355072616687</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8409524844436512</v>
+        <v>0.8402810600416443</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8588915740054583</v>
+        <v>0.8581491010669501</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>164617</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>146120</v>
+        <v>146357</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>187155</v>
+        <v>188290</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2845440734381184</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2525713677629288</v>
+        <v>0.2529819683425764</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3235020876364929</v>
+        <v>0.3254631881821553</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>640</v>
@@ -4086,19 +4086,19 @@
         <v>355578</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>332371</v>
+        <v>332649</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>375900</v>
+        <v>377820</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4325564593690008</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4043254857332315</v>
+        <v>0.4046642175030229</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4572775666713338</v>
+        <v>0.459613628235461</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>851</v>
@@ -4107,19 +4107,19 @@
         <v>520195</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>491216</v>
+        <v>487668</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>551689</v>
+        <v>552295</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.3714172908316805</v>
+        <v>0.3714172908316804</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3507262684251143</v>
+        <v>0.348193247239358</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3939037166009302</v>
+        <v>0.3943369227661092</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>413912</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>391374</v>
+        <v>390239</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>432409</v>
+        <v>432172</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.7154559265618816</v>
+        <v>0.7154559265618817</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6764979123635072</v>
+        <v>0.6745368118178449</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7474286322370713</v>
+        <v>0.7470180316574236</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>787</v>
@@ -4157,19 +4157,19 @@
         <v>466460</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>446138</v>
+        <v>444218</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>489667</v>
+        <v>489389</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5674435406309992</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5427224333286658</v>
+        <v>0.540386371764539</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5956745142667682</v>
+        <v>0.5953357824969771</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1267</v>
@@ -4178,19 +4178,19 @@
         <v>880372</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>848878</v>
+        <v>848272</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>909351</v>
+        <v>912899</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6285827091683195</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6060962833990698</v>
+        <v>0.605663077233891</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6492737315748855</v>
+        <v>0.651806752760642</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>261791</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>231287</v>
+        <v>230611</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>295566</v>
+        <v>297739</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1174804069009136</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1037913813571805</v>
+        <v>0.1034881696973389</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1326369694051364</v>
+        <v>0.133612065840001</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>506</v>
@@ -4303,19 +4303,19 @@
         <v>338134</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>312897</v>
+        <v>307203</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>369341</v>
+        <v>370092</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1558436795401363</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1442120052358244</v>
+        <v>0.1415875141761607</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1702266757411176</v>
+        <v>0.1705726263325778</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>765</v>
@@ -4324,19 +4324,19 @@
         <v>599926</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>556926</v>
+        <v>559016</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>646206</v>
+        <v>641344</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.136406117865066</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1266292014100667</v>
+        <v>0.1271042602515751</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1469289745384333</v>
+        <v>0.1458233416571146</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>1966592</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1932817</v>
+        <v>1930644</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1997096</v>
+        <v>1997772</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8825195930990866</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8673630305948636</v>
+        <v>0.8663879341599989</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8962086186428195</v>
+        <v>0.8965118303026612</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2412</v>
@@ -4374,19 +4374,19 @@
         <v>1831569</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1800362</v>
+        <v>1799611</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1856806</v>
+        <v>1862500</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8441563204598637</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8297733242588827</v>
+        <v>0.829427373667422</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8557879947641758</v>
+        <v>0.8584124858238391</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4142</v>
@@ -4395,19 +4395,19 @@
         <v>3798161</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3751881</v>
+        <v>3756743</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3841161</v>
+        <v>3839071</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.863593882134934</v>
+        <v>0.8635938821349342</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8530710254615667</v>
+        <v>0.8541766583428856</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8733707985899329</v>
+        <v>0.8728957397484248</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>54594</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>41429</v>
+        <v>40937</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>70620</v>
+        <v>71133</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.07672199072627363</v>
+        <v>0.0767219907262736</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.058220177654146</v>
+        <v>0.05752903347518456</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09924338995858857</v>
+        <v>0.09996325079840949</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>112</v>
@@ -4520,19 +4520,19 @@
         <v>76432</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>63571</v>
+        <v>62622</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>91072</v>
+        <v>91271</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1040068601845893</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08650522385163555</v>
+        <v>0.08521409209584639</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1239278156820273</v>
+        <v>0.1241996189391692</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>168</v>
@@ -4544,16 +4544,16 @@
         <v>111747</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>153604</v>
+        <v>152322</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.09058408916238005</v>
+        <v>0.09058408916238003</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07725551531539421</v>
+        <v>0.07725544425748243</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1061925069807147</v>
+        <v>0.1053064037423068</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>656993</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>640967</v>
+        <v>640454</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>670158</v>
+        <v>670650</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9232780092737265</v>
+        <v>0.9232780092737263</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9007566100414113</v>
+        <v>0.900036749201591</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9417798223458543</v>
+        <v>0.9424709665248158</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>892</v>
@@ -4591,19 +4591,19 @@
         <v>658445</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>643805</v>
+        <v>643606</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>671306</v>
+        <v>672255</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8959931398154106</v>
+        <v>0.8959931398154105</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8760721843179726</v>
+        <v>0.875800381060831</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9134947761483645</v>
+        <v>0.9147859079041538</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1517</v>
@@ -4612,19 +4612,19 @@
         <v>1315437</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1292860</v>
+        <v>1294142</v>
       </c>
       <c r="T11" s="5" t="n">
         <v>1334717</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9094159108376201</v>
+        <v>0.90941591083762</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8938074930192853</v>
+        <v>0.8946935962576933</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9227444846846057</v>
+        <v>0.9227445557425175</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>481003</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>440993</v>
+        <v>442195</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>527049</v>
+        <v>522726</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1367068062152871</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1253354025318812</v>
+        <v>0.1256772761250396</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1497937304219114</v>
+        <v>0.1485650820633911</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1258</v>
@@ -4737,19 +4737,19 @@
         <v>770145</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>729514</v>
+        <v>729251</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>810068</v>
+        <v>815251</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2066604413243346</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1957575398771016</v>
+        <v>0.1956871627481014</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2173735786406657</v>
+        <v>0.218764329816577</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1784</v>
@@ -4758,19 +4758,19 @@
         <v>1251147</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1194863</v>
+        <v>1190989</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1311999</v>
+        <v>1313999</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.1726883448930154</v>
+        <v>0.1726883448930155</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.164919800159933</v>
+        <v>0.1643850341908736</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1810873585044013</v>
+        <v>0.1813633461277943</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>3037497</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2991451</v>
+        <v>2995774</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3077507</v>
+        <v>3076305</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.863293193784713</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8502062695780884</v>
+        <v>0.8514349179366087</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8746645974681188</v>
+        <v>0.8743227238749604</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4091</v>
@@ -4808,19 +4808,19 @@
         <v>2956473</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2916550</v>
+        <v>2911367</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2997104</v>
+        <v>2997367</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7933395586756654</v>
+        <v>0.7933395586756653</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7826264213593345</v>
+        <v>0.7812356701834232</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8042424601228987</v>
+        <v>0.8043128372518991</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6926</v>
@@ -4829,19 +4829,19 @@
         <v>5993971</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5933119</v>
+        <v>5931119</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6050255</v>
+        <v>6054129</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8273116551069846</v>
+        <v>0.8273116551069847</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8189126414955975</v>
+        <v>0.8186366538722056</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8350801998400669</v>
+        <v>0.8356149658091262</v>
       </c>
     </row>
     <row r="15">
